--- a/Documents/DL100-1500-2000 Comparison Chart 03-21-23.xlsx
+++ b/Documents/DL100-1500-2000 Comparison Chart 03-21-23.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\Access One\AO Products\Digital Lock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBMACS\Github\digital-lock\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FF5683-E9C8-4C71-B3A3-2719F55293D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1680" windowWidth="18570" windowHeight="14520" xr2:uid="{2964D880-86BF-4B4A-B608-C05BB1C36EE3}"/>
+    <workbookView xWindow="2340" yWindow="1680" windowWidth="18570" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -153,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -185,6 +190,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78BDEA3-76F2-44C8-A7D3-1AD4FE54A48E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,16 +894,17 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -956,6 +968,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>